--- a/Code/Results/Cases/Case_0_182/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_182/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9230374306728392</v>
+        <v>1.04017524383956</v>
       </c>
       <c r="D2">
-        <v>0.9323309382868445</v>
+        <v>1.042819636062604</v>
       </c>
       <c r="E2">
-        <v>0.9423427187824157</v>
+        <v>1.047274954924097</v>
       </c>
       <c r="F2">
-        <v>0.9417191118885709</v>
+        <v>1.0555957671663</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.02359499962809</v>
       </c>
       <c r="J2">
-        <v>0.9477918469953895</v>
+        <v>1.045263271193739</v>
       </c>
       <c r="K2">
-        <v>0.9448210827861433</v>
+        <v>1.045595246361183</v>
       </c>
       <c r="L2">
-        <v>0.9546683739821354</v>
+        <v>1.050038048749578</v>
       </c>
       <c r="M2">
-        <v>0.9540548815030623</v>
+        <v>1.058335791655322</v>
       </c>
       <c r="N2">
-        <v>0.9821534691661545</v>
+        <v>1.0183490914852</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9387296246099757</v>
+        <v>1.042716868103572</v>
       </c>
       <c r="D3">
-        <v>0.9471303029152239</v>
+        <v>1.045276176802779</v>
       </c>
       <c r="E3">
-        <v>0.956403195409933</v>
+        <v>1.049600976006424</v>
       </c>
       <c r="F3">
-        <v>0.9569420433048007</v>
+        <v>1.058140979816293</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208684</v>
       </c>
       <c r="J3">
-        <v>0.9610423712808713</v>
+        <v>1.047442465382062</v>
       </c>
       <c r="K3">
-        <v>0.9584875506868751</v>
+        <v>1.047858394805339</v>
       </c>
       <c r="L3">
-        <v>0.9676260666360678</v>
+        <v>1.052171958826295</v>
       </c>
       <c r="M3">
-        <v>0.9681572072497323</v>
+        <v>1.060690067838607</v>
       </c>
       <c r="N3">
-        <v>0.9871400526658698</v>
+        <v>1.019131940075213</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9482584162619072</v>
+        <v>1.044352909264869</v>
       </c>
       <c r="D4">
-        <v>0.9561278266292599</v>
+        <v>1.046857622668442</v>
       </c>
       <c r="E4">
-        <v>0.9649522563971301</v>
+        <v>1.051098044896564</v>
       </c>
       <c r="F4">
-        <v>0.966201221683873</v>
+        <v>1.059779841418709</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>0.9690851361059898</v>
+        <v>1.048844114537246</v>
       </c>
       <c r="K4">
-        <v>0.9667862697632214</v>
+        <v>1.049314436128667</v>
       </c>
       <c r="L4">
-        <v>0.9754929283675073</v>
+        <v>1.053544418375484</v>
       </c>
       <c r="M4">
-        <v>0.9767254428103558</v>
+        <v>1.062205120318036</v>
       </c>
       <c r="N4">
-        <v>0.9901642209873814</v>
+        <v>1.019634041792785</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9521326229082594</v>
+        <v>1.045038707707896</v>
       </c>
       <c r="D5">
-        <v>0.959788313140808</v>
+        <v>1.04752057609493</v>
       </c>
       <c r="E5">
-        <v>0.9684303450956951</v>
+        <v>1.051725542078274</v>
       </c>
       <c r="F5">
-        <v>0.9699691075832013</v>
+        <v>1.060466943123821</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628352</v>
       </c>
       <c r="J5">
-        <v>0.9723540782020591</v>
+        <v>1.049431397062961</v>
       </c>
       <c r="K5">
-        <v>0.9701600741561129</v>
+        <v>1.049924602763515</v>
       </c>
       <c r="L5">
-        <v>0.9786907363942443</v>
+        <v>1.054119455211515</v>
       </c>
       <c r="M5">
-        <v>0.9802099287935988</v>
+        <v>1.06284010745029</v>
       </c>
       <c r="N5">
-        <v>0.99139245612994</v>
+        <v>1.019844076417721</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9527758518672466</v>
+        <v>1.045153741009738</v>
       </c>
       <c r="D6">
-        <v>0.9603961843924329</v>
+        <v>1.047631779792948</v>
       </c>
       <c r="E6">
-        <v>0.9690079265233763</v>
+        <v>1.051830793363836</v>
       </c>
       <c r="F6">
-        <v>0.9705948687064244</v>
+        <v>1.060582202090532</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>0.9728967456366782</v>
+        <v>1.049529890216213</v>
       </c>
       <c r="K6">
-        <v>0.9707201982709615</v>
+        <v>1.050026939332133</v>
       </c>
       <c r="L6">
-        <v>0.9792216142597373</v>
+        <v>1.054215893725982</v>
       </c>
       <c r="M6">
-        <v>0.9807884925151551</v>
+        <v>1.062946612243976</v>
       </c>
       <c r="N6">
-        <v>0.9915962893910053</v>
+        <v>1.019879281142692</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9483106800343915</v>
+        <v>1.044362080694967</v>
       </c>
       <c r="D7">
-        <v>0.9561771985817321</v>
+        <v>1.046866488426635</v>
       </c>
       <c r="E7">
-        <v>0.9649991681522629</v>
+        <v>1.051106436828207</v>
       </c>
       <c r="F7">
-        <v>0.9662520384896703</v>
+        <v>1.059789029803537</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.02344298551034</v>
       </c>
       <c r="J7">
-        <v>0.9691292393564612</v>
+        <v>1.048851969514203</v>
       </c>
       <c r="K7">
-        <v>0.9668317844703412</v>
+        <v>1.049322596813128</v>
       </c>
       <c r="L7">
-        <v>0.9755360705643858</v>
+        <v>1.053552109625919</v>
       </c>
       <c r="M7">
-        <v>0.9767724463186327</v>
+        <v>1.062213612605454</v>
       </c>
       <c r="N7">
-        <v>0.9901807958915924</v>
+        <v>1.01963685238427</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.928482188429218</v>
+        <v>1.041036003972119</v>
       </c>
       <c r="D8">
-        <v>0.9374633282004015</v>
+        <v>1.043651544782026</v>
       </c>
       <c r="E8">
-        <v>0.9472186095255591</v>
+        <v>1.048062736051536</v>
       </c>
       <c r="F8">
-        <v>0.9469974702946484</v>
+        <v>1.056457635697644</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.9523899513482713</v>
+        <v>1.046001516165925</v>
       </c>
       <c r="K8">
-        <v>0.9495627683606571</v>
+        <v>1.046361850760844</v>
       </c>
       <c r="L8">
-        <v>0.9591644086285754</v>
+        <v>1.050760965744564</v>
       </c>
       <c r="M8">
-        <v>0.9589467074222431</v>
+        <v>1.059133184507377</v>
       </c>
       <c r="N8">
-        <v>0.9838842248472721</v>
+        <v>1.018614591491492</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8876712786761376</v>
+        <v>1.035106927191074</v>
       </c>
       <c r="D9">
-        <v>0.8990645043562229</v>
+        <v>1.037921960566549</v>
       </c>
       <c r="E9">
-        <v>0.9107502664584617</v>
+        <v>1.042635629575311</v>
       </c>
       <c r="F9">
-        <v>0.9075284586402254</v>
+        <v>1.050523089021407</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.9179258895707159</v>
+        <v>1.04091183494964</v>
       </c>
       <c r="K9">
-        <v>0.9140390988655657</v>
+        <v>1.041078281382405</v>
       </c>
       <c r="L9">
-        <v>0.9254788319665807</v>
+        <v>1.04577671194103</v>
       </c>
       <c r="M9">
-        <v>0.9223240190229313</v>
+        <v>1.053639007243571</v>
       </c>
       <c r="N9">
-        <v>0.9709172311534661</v>
+        <v>1.01677833938926</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8542589704525416</v>
+        <v>1.031104808891264</v>
       </c>
       <c r="D10">
-        <v>0.8677592330878685</v>
+        <v>1.03405550218697</v>
       </c>
       <c r="E10">
-        <v>0.8810489903996295</v>
+        <v>1.038971493325861</v>
       </c>
       <c r="F10">
-        <v>0.8753850579399216</v>
+        <v>1.046520062579966</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.8897419268240928</v>
+        <v>1.037470649832529</v>
       </c>
       <c r="K10">
-        <v>0.8850114321538292</v>
+        <v>1.037508062639323</v>
       </c>
       <c r="L10">
-        <v>0.8979585702352483</v>
+        <v>1.042406508592142</v>
       </c>
       <c r="M10">
-        <v>0.8924389369800384</v>
+        <v>1.049928490539339</v>
       </c>
       <c r="N10">
-        <v>0.9603503264663966</v>
+        <v>1.015529589008377</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.83740931327357</v>
+        <v>1.029359312437535</v>
       </c>
       <c r="D11">
-        <v>0.8520228549379837</v>
+        <v>1.032369425976712</v>
       </c>
       <c r="E11">
-        <v>0.8661337697380586</v>
+        <v>1.03737322502341</v>
       </c>
       <c r="F11">
-        <v>0.859238141180185</v>
+        <v>1.044774848800066</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.8755528162860398</v>
+        <v>1.03596846709841</v>
       </c>
       <c r="K11">
-        <v>0.8704032540695412</v>
+        <v>1.03595004106279</v>
       </c>
       <c r="L11">
-        <v>0.8841147008052188</v>
+        <v>1.040935245259231</v>
       </c>
       <c r="M11">
-        <v>0.8774120404863569</v>
+        <v>1.048309724469146</v>
       </c>
       <c r="N11">
-        <v>0.955053776773892</v>
+        <v>1.014982781596006</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8306543578312229</v>
+        <v>1.028709000077692</v>
       </c>
       <c r="D12">
-        <v>0.8457245182874557</v>
+        <v>1.031741290895359</v>
       </c>
       <c r="E12">
-        <v>0.860167427251622</v>
+        <v>1.036777739503772</v>
       </c>
       <c r="F12">
-        <v>0.8527774630695468</v>
+        <v>1.044124745288904</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268118</v>
       </c>
       <c r="J12">
-        <v>0.869870419932566</v>
+        <v>1.035408605547208</v>
       </c>
       <c r="K12">
-        <v>0.8645539031873176</v>
+        <v>1.035369441849503</v>
       </c>
       <c r="L12">
-        <v>0.8785728884896719</v>
+        <v>1.040386897755595</v>
       </c>
       <c r="M12">
-        <v>0.8713973695840885</v>
+        <v>1.047706561181219</v>
       </c>
       <c r="N12">
-        <v>0.9529380731220219</v>
+        <v>1.014778735749135</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8321289781491334</v>
+        <v>1.028848584021226</v>
       </c>
       <c r="D13">
-        <v>0.8470989385752683</v>
+        <v>1.031876112877348</v>
       </c>
       <c r="E13">
-        <v>0.8614692268457887</v>
+        <v>1.036905556456137</v>
       </c>
       <c r="F13">
-        <v>0.8541872135301588</v>
+        <v>1.044264279696542</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405786</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.8711105802322123</v>
+        <v>1.03552878401884</v>
       </c>
       <c r="K13">
-        <v>0.8658304614412052</v>
+        <v>1.035494068494841</v>
       </c>
       <c r="L13">
-        <v>0.8797822487854222</v>
+        <v>1.040504605077418</v>
       </c>
       <c r="M13">
-        <v>0.8727098933641917</v>
+        <v>1.047836027963775</v>
       </c>
       <c r="N13">
-        <v>0.9533995333103186</v>
+        <v>1.014822547050643</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8368621845270806</v>
+        <v>1.029305597761362</v>
       </c>
       <c r="D14">
-        <v>0.8515124858032899</v>
+        <v>1.032317542296349</v>
       </c>
       <c r="E14">
-        <v>0.8656502283200003</v>
+        <v>1.037324039455552</v>
       </c>
       <c r="F14">
-        <v>0.8587145752581209</v>
+        <v>1.044721149255309</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353277</v>
       </c>
       <c r="J14">
-        <v>0.8750924249686978</v>
+        <v>1.035922227565426</v>
       </c>
       <c r="K14">
-        <v>0.8699293185818979</v>
+        <v>1.035902087289256</v>
       </c>
       <c r="L14">
-        <v>0.8836656486074311</v>
+        <v>1.040889956875909</v>
       </c>
       <c r="M14">
-        <v>0.8769246604883386</v>
+        <v>1.048259905569686</v>
       </c>
       <c r="N14">
-        <v>0.9548822390181423</v>
+        <v>1.014965934352414</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8397071223314571</v>
+        <v>1.029586917491996</v>
       </c>
       <c r="D15">
-        <v>0.8541667099925753</v>
+        <v>1.032589274173725</v>
       </c>
       <c r="E15">
-        <v>0.8681650723577328</v>
+        <v>1.037581637873289</v>
       </c>
       <c r="F15">
-        <v>0.8614375113465252</v>
+        <v>1.045002393982244</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.8774866019054969</v>
+        <v>1.036164389590152</v>
       </c>
       <c r="K15">
-        <v>0.8723939640346925</v>
+        <v>1.036153230001111</v>
       </c>
       <c r="L15">
-        <v>0.8860009553565281</v>
+        <v>1.041127137225676</v>
       </c>
       <c r="M15">
-        <v>0.8794593183273048</v>
+        <v>1.04852081925309</v>
       </c>
       <c r="N15">
-        <v>0.9557745172107908</v>
+        <v>1.015054155135528</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.855316979984525</v>
+        <v>1.031220381217136</v>
       </c>
       <c r="D16">
-        <v>0.8687485224413054</v>
+        <v>1.03416714562377</v>
       </c>
       <c r="E16">
-        <v>0.8819870256472471</v>
+        <v>1.03907731378174</v>
       </c>
       <c r="F16">
-        <v>0.8764003930183597</v>
+        <v>1.046635630581571</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.8906335112749961</v>
+        <v>1.037570083988448</v>
       </c>
       <c r="K16">
-        <v>0.8859294623659436</v>
+        <v>1.037611203200613</v>
       </c>
       <c r="L16">
-        <v>0.8988287252149446</v>
+        <v>1.042503894736898</v>
       </c>
       <c r="M16">
-        <v>0.8933835617584843</v>
+        <v>1.050035662484549</v>
       </c>
       <c r="N16">
-        <v>0.9606837351500879</v>
+        <v>1.015565748614913</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8643955173704828</v>
+        <v>1.032241599264274</v>
       </c>
       <c r="D17">
-        <v>0.8772429305595523</v>
+        <v>1.035153676581915</v>
       </c>
       <c r="E17">
-        <v>0.8900429944190446</v>
+        <v>1.040012341989708</v>
       </c>
       <c r="F17">
-        <v>0.8851196043651174</v>
+        <v>1.047656888725776</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.8982866749266505</v>
+        <v>1.038448548867654</v>
       </c>
       <c r="K17">
-        <v>0.8938102356023029</v>
+        <v>1.038522469008551</v>
       </c>
       <c r="L17">
-        <v>0.9062991622188734</v>
+        <v>1.043364258595995</v>
       </c>
       <c r="M17">
-        <v>0.9014940161428762</v>
+        <v>1.050982601642853</v>
       </c>
       <c r="N17">
-        <v>0.9635482490953172</v>
+        <v>1.015885011622206</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8694730868318518</v>
+        <v>1.032836052206622</v>
       </c>
       <c r="D18">
-        <v>0.8819980426987973</v>
+        <v>1.035727962332571</v>
       </c>
       <c r="E18">
-        <v>0.8945538942069136</v>
+        <v>1.040556606213861</v>
       </c>
       <c r="F18">
-        <v>0.8900014786825542</v>
+        <v>1.048251430112705</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601775</v>
       </c>
       <c r="J18">
-        <v>0.9025689602401599</v>
+        <v>1.038959776764371</v>
       </c>
       <c r="K18">
-        <v>0.8982203768366679</v>
+        <v>1.039052832485775</v>
       </c>
       <c r="L18">
-        <v>0.910480128899112</v>
+        <v>1.043864946101596</v>
       </c>
       <c r="M18">
-        <v>0.906033778179408</v>
+        <v>1.051533773423066</v>
       </c>
       <c r="N18">
-        <v>0.9651529761110724</v>
+        <v>1.016070646239164</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8711705045745073</v>
+        <v>1.033038542831997</v>
       </c>
       <c r="D19">
-        <v>0.8835883285064797</v>
+        <v>1.035923587405972</v>
       </c>
       <c r="E19">
-        <v>0.8960626913298536</v>
+        <v>1.040741997864389</v>
       </c>
       <c r="F19">
-        <v>0.8916343071310252</v>
+        <v>1.048453961861148</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044801</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9040007940245024</v>
+        <v>1.039133896385259</v>
       </c>
       <c r="K19">
-        <v>0.8996950449294363</v>
+        <v>1.039233477464123</v>
       </c>
       <c r="L19">
-        <v>0.9118782290722551</v>
+        <v>1.044035474663893</v>
       </c>
       <c r="M19">
-        <v>0.9075519652271177</v>
+        <v>1.051721513654259</v>
       </c>
       <c r="N19">
-        <v>0.9656898178087526</v>
+        <v>1.016133844100684</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8634447608264166</v>
+        <v>1.032132157513226</v>
       </c>
       <c r="D20">
-        <v>0.8763528876313602</v>
+        <v>1.035047949654619</v>
       </c>
       <c r="E20">
-        <v>0.8891987569347158</v>
+        <v>1.039912138813007</v>
       </c>
       <c r="F20">
-        <v>0.8842059082351222</v>
+        <v>1.047547435927114</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030143</v>
       </c>
       <c r="J20">
-        <v>0.8974849779166304</v>
+        <v>1.038354418929008</v>
       </c>
       <c r="K20">
-        <v>0.8929846432081396</v>
+        <v>1.038424819505771</v>
       </c>
       <c r="L20">
-        <v>0.9055165059061041</v>
+        <v>1.043272068890828</v>
       </c>
       <c r="M20">
-        <v>0.9006442456328656</v>
+        <v>1.050881124672924</v>
       </c>
       <c r="N20">
-        <v>0.9632479703168022</v>
+        <v>1.015850818504637</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8354836221724825</v>
+        <v>1.029171073216513</v>
       </c>
       <c r="D21">
-        <v>0.8502267187387109</v>
+        <v>1.032187603988182</v>
       </c>
       <c r="E21">
-        <v>0.864432105513083</v>
+        <v>1.037200857333937</v>
       </c>
       <c r="F21">
-        <v>0.8573955944272258</v>
+        <v>1.044586664282698</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.873932513370194</v>
+        <v>1.035806420760361</v>
       </c>
       <c r="K21">
-        <v>0.8687352976013297</v>
+        <v>1.035781988357569</v>
       </c>
       <c r="L21">
-        <v>0.8825343444069992</v>
+        <v>1.04077653206984</v>
       </c>
       <c r="M21">
-        <v>0.875696806613574</v>
+        <v>1.048135136650866</v>
       </c>
       <c r="N21">
-        <v>0.9544501602764232</v>
+        <v>1.014923736419071</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8148814602314162</v>
+        <v>1.027297961370661</v>
       </c>
       <c r="D22">
-        <v>0.831042121874932</v>
+        <v>1.030378445588498</v>
       </c>
       <c r="E22">
-        <v>0.8462672181822801</v>
+        <v>1.03548561886827</v>
       </c>
       <c r="F22">
-        <v>0.8377209936215843</v>
+        <v>1.042714351047513</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.8566174540076874</v>
+        <v>1.034193461159822</v>
       </c>
       <c r="K22">
-        <v>0.850913227898738</v>
+        <v>1.034109422142072</v>
       </c>
       <c r="L22">
-        <v>0.8656533600172061</v>
+        <v>1.039196726786682</v>
       </c>
       <c r="M22">
-        <v>0.857376351669784</v>
+        <v>1.046397705749013</v>
       </c>
       <c r="N22">
-        <v>0.9480171930411119</v>
+        <v>1.014335409212803</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8261634590474576</v>
+        <v>1.028292034507777</v>
       </c>
       <c r="D23">
-        <v>0.8415405900808928</v>
+        <v>1.031338556130767</v>
       </c>
       <c r="E23">
-        <v>0.8562051799495148</v>
+        <v>1.036395920750502</v>
       </c>
       <c r="F23">
-        <v>0.8484863144490469</v>
+        <v>1.043707942975485</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.8660947026274662</v>
+        <v>1.035049578893487</v>
       </c>
       <c r="K23">
-        <v>0.8606675001213834</v>
+        <v>1.034997137271412</v>
       </c>
       <c r="L23">
-        <v>0.8748913575535685</v>
+        <v>1.040035252155886</v>
       </c>
       <c r="M23">
-        <v>0.8674018626604517</v>
+        <v>1.047319808003667</v>
       </c>
       <c r="N23">
-        <v>0.9515341454518247</v>
+        <v>1.014647815229793</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8638750306236679</v>
+        <v>1.032181613253358</v>
       </c>
       <c r="D24">
-        <v>0.8767556679946852</v>
+        <v>1.03509572662457</v>
       </c>
       <c r="E24">
-        <v>0.8895808047091995</v>
+        <v>1.039957419778833</v>
       </c>
       <c r="F24">
-        <v>0.8846193897613431</v>
+        <v>1.047596896458321</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.8978477841633163</v>
+        <v>1.038396955795671</v>
       </c>
       <c r="K24">
-        <v>0.8933582616941279</v>
+        <v>1.038468946701523</v>
       </c>
       <c r="L24">
-        <v>0.9058706924590593</v>
+        <v>1.04331372899512</v>
       </c>
       <c r="M24">
-        <v>0.901028802428522</v>
+        <v>1.050926981334269</v>
       </c>
       <c r="N24">
-        <v>0.9633838549641491</v>
+        <v>1.015866270712587</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8991009233870392</v>
+        <v>1.036648173342412</v>
       </c>
       <c r="D25">
-        <v>0.909801685083807</v>
+        <v>1.039411178549705</v>
       </c>
       <c r="E25">
-        <v>0.9209444663288042</v>
+        <v>1.04404654526202</v>
       </c>
       <c r="F25">
-        <v>0.9185599703384946</v>
+        <v>1.052065275295968</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.927576309919404</v>
+        <v>1.042235876875733</v>
       </c>
       <c r="K25">
-        <v>0.923982662647027</v>
+        <v>1.042452402005797</v>
       </c>
       <c r="L25">
-        <v>0.9349079508451716</v>
+        <v>1.047073381547944</v>
       </c>
       <c r="M25">
-        <v>0.9325694157313638</v>
+        <v>1.055067549748625</v>
       </c>
       <c r="N25">
-        <v>0.9745454565877206</v>
+        <v>1.017257303789772</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_182/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_182/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04017524383956</v>
+        <v>0.9230374306728358</v>
       </c>
       <c r="D2">
-        <v>1.042819636062604</v>
+        <v>0.9323309382868413</v>
       </c>
       <c r="E2">
-        <v>1.047274954924097</v>
+        <v>0.9423427187824132</v>
       </c>
       <c r="F2">
-        <v>1.0555957671663</v>
+        <v>0.9417191118885682</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02359499962809</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.045263271193739</v>
+        <v>0.9477918469953864</v>
       </c>
       <c r="K2">
-        <v>1.045595246361183</v>
+        <v>0.9448210827861399</v>
       </c>
       <c r="L2">
-        <v>1.050038048749578</v>
+        <v>0.9546683739821328</v>
       </c>
       <c r="M2">
-        <v>1.058335791655322</v>
+        <v>0.9540548815030594</v>
       </c>
       <c r="N2">
-        <v>1.0183490914852</v>
+        <v>0.9821534691661533</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042716868103572</v>
+        <v>0.9387296246099774</v>
       </c>
       <c r="D3">
-        <v>1.045276176802779</v>
+        <v>0.9471303029152258</v>
       </c>
       <c r="E3">
-        <v>1.049600976006424</v>
+        <v>0.9564031954099348</v>
       </c>
       <c r="F3">
-        <v>1.058140979816293</v>
+        <v>0.9569420433048025</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208684</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.047442465382062</v>
+        <v>0.961042371280873</v>
       </c>
       <c r="K3">
-        <v>1.047858394805339</v>
+        <v>0.9584875506868766</v>
       </c>
       <c r="L3">
-        <v>1.052171958826295</v>
+        <v>0.9676260666360695</v>
       </c>
       <c r="M3">
-        <v>1.060690067838607</v>
+        <v>0.9681572072497339</v>
       </c>
       <c r="N3">
-        <v>1.019131940075213</v>
+        <v>0.9871400526658703</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044352909264869</v>
+        <v>0.9482584162619062</v>
       </c>
       <c r="D4">
-        <v>1.046857622668442</v>
+        <v>0.9561278266292583</v>
       </c>
       <c r="E4">
-        <v>1.051098044896564</v>
+        <v>0.9649522563971291</v>
       </c>
       <c r="F4">
-        <v>1.059779841418709</v>
+        <v>0.9662012216838726</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.048844114537246</v>
+        <v>0.9690851361059887</v>
       </c>
       <c r="K4">
-        <v>1.049314436128667</v>
+        <v>0.96678626976322</v>
       </c>
       <c r="L4">
-        <v>1.053544418375484</v>
+        <v>0.9754929283675066</v>
       </c>
       <c r="M4">
-        <v>1.062205120318036</v>
+        <v>0.976725442810355</v>
       </c>
       <c r="N4">
-        <v>1.019634041792785</v>
+        <v>0.990164220987381</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045038707707896</v>
+        <v>0.9521326229082575</v>
       </c>
       <c r="D5">
-        <v>1.04752057609493</v>
+        <v>0.9597883131408061</v>
       </c>
       <c r="E5">
-        <v>1.051725542078274</v>
+        <v>0.9684303450956931</v>
       </c>
       <c r="F5">
-        <v>1.060466943123821</v>
+        <v>0.9699691075831992</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628352</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.049431397062961</v>
+        <v>0.9723540782020574</v>
       </c>
       <c r="K5">
-        <v>1.049924602763515</v>
+        <v>0.9701600741561111</v>
       </c>
       <c r="L5">
-        <v>1.054119455211515</v>
+        <v>0.9786907363942425</v>
       </c>
       <c r="M5">
-        <v>1.06284010745029</v>
+        <v>0.980209928793597</v>
       </c>
       <c r="N5">
-        <v>1.019844076417721</v>
+        <v>0.9913924561299393</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045153741009738</v>
+        <v>0.952775851867247</v>
       </c>
       <c r="D6">
-        <v>1.047631779792948</v>
+        <v>0.9603961843924336</v>
       </c>
       <c r="E6">
-        <v>1.051830793363836</v>
+        <v>0.969007926523377</v>
       </c>
       <c r="F6">
-        <v>1.060582202090532</v>
+        <v>0.9705948687064251</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.049529890216213</v>
+        <v>0.9728967456366788</v>
       </c>
       <c r="K6">
-        <v>1.050026939332133</v>
+        <v>0.9707201982709621</v>
       </c>
       <c r="L6">
-        <v>1.054215893725982</v>
+        <v>0.9792216142597379</v>
       </c>
       <c r="M6">
-        <v>1.062946612243976</v>
+        <v>0.9807884925151559</v>
       </c>
       <c r="N6">
-        <v>1.019879281142692</v>
+        <v>0.9915962893910055</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044362080694967</v>
+        <v>0.9483106800343906</v>
       </c>
       <c r="D7">
-        <v>1.046866488426635</v>
+        <v>0.9561771985817311</v>
       </c>
       <c r="E7">
-        <v>1.051106436828207</v>
+        <v>0.9649991681522619</v>
       </c>
       <c r="F7">
-        <v>1.059789029803537</v>
+        <v>0.9662520384896696</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02344298551034</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.048851969514203</v>
+        <v>0.9691292393564606</v>
       </c>
       <c r="K7">
-        <v>1.049322596813128</v>
+        <v>0.9668317844703405</v>
       </c>
       <c r="L7">
-        <v>1.053552109625919</v>
+        <v>0.9755360705643852</v>
       </c>
       <c r="M7">
-        <v>1.062213612605454</v>
+        <v>0.9767724463186318</v>
       </c>
       <c r="N7">
-        <v>1.01963685238427</v>
+        <v>0.9901807958915921</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041036003972119</v>
+        <v>0.9284821884292191</v>
       </c>
       <c r="D8">
-        <v>1.043651544782026</v>
+        <v>0.9374633282004026</v>
       </c>
       <c r="E8">
-        <v>1.048062736051536</v>
+        <v>0.9472186095255601</v>
       </c>
       <c r="F8">
-        <v>1.056457635697644</v>
+        <v>0.9469974702946495</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.046001516165925</v>
+        <v>0.9523899513482725</v>
       </c>
       <c r="K8">
-        <v>1.046361850760844</v>
+        <v>0.9495627683606586</v>
       </c>
       <c r="L8">
-        <v>1.050760965744564</v>
+        <v>0.9591644086285765</v>
       </c>
       <c r="M8">
-        <v>1.059133184507377</v>
+        <v>0.9589467074222441</v>
       </c>
       <c r="N8">
-        <v>1.018614591491492</v>
+        <v>0.9838842248472723</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035106927191074</v>
+        <v>0.8876712786761366</v>
       </c>
       <c r="D9">
-        <v>1.037921960566549</v>
+        <v>0.8990645043562224</v>
       </c>
       <c r="E9">
-        <v>1.042635629575311</v>
+        <v>0.9107502664584611</v>
       </c>
       <c r="F9">
-        <v>1.050523089021407</v>
+        <v>0.9075284586402248</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.04091183494964</v>
+        <v>0.9179258895707151</v>
       </c>
       <c r="K9">
-        <v>1.041078281382405</v>
+        <v>0.9140390988655651</v>
       </c>
       <c r="L9">
-        <v>1.04577671194103</v>
+        <v>0.9254788319665799</v>
       </c>
       <c r="M9">
-        <v>1.053639007243571</v>
+        <v>0.9223240190229307</v>
       </c>
       <c r="N9">
-        <v>1.01677833938926</v>
+        <v>0.9709172311534658</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031104808891264</v>
+        <v>0.8542589704525443</v>
       </c>
       <c r="D10">
-        <v>1.03405550218697</v>
+        <v>0.8677592330878708</v>
       </c>
       <c r="E10">
-        <v>1.038971493325861</v>
+        <v>0.8810489903996318</v>
       </c>
       <c r="F10">
-        <v>1.046520062579966</v>
+        <v>0.8753850579399237</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.037470649832529</v>
+        <v>0.8897419268240951</v>
       </c>
       <c r="K10">
-        <v>1.037508062639323</v>
+        <v>0.8850114321538312</v>
       </c>
       <c r="L10">
-        <v>1.042406508592142</v>
+        <v>0.8979585702352505</v>
       </c>
       <c r="M10">
-        <v>1.049928490539339</v>
+        <v>0.8924389369800405</v>
       </c>
       <c r="N10">
-        <v>1.015529589008377</v>
+        <v>0.9603503264663976</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029359312437535</v>
+        <v>0.8374093132735693</v>
       </c>
       <c r="D11">
-        <v>1.032369425976712</v>
+        <v>0.8520228549379831</v>
       </c>
       <c r="E11">
-        <v>1.03737322502341</v>
+        <v>0.866133769738058</v>
       </c>
       <c r="F11">
-        <v>1.044774848800066</v>
+        <v>0.8592381411801844</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.03596846709841</v>
+        <v>0.8755528162860393</v>
       </c>
       <c r="K11">
-        <v>1.03595004106279</v>
+        <v>0.8704032540695407</v>
       </c>
       <c r="L11">
-        <v>1.040935245259231</v>
+        <v>0.8841147008052183</v>
       </c>
       <c r="M11">
-        <v>1.048309724469146</v>
+        <v>0.8774120404863565</v>
       </c>
       <c r="N11">
-        <v>1.014982781596006</v>
+        <v>0.955053776773892</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028709000077692</v>
+        <v>0.8306543578312163</v>
       </c>
       <c r="D12">
-        <v>1.031741290895359</v>
+        <v>0.8457245182874493</v>
       </c>
       <c r="E12">
-        <v>1.036777739503772</v>
+        <v>0.8601674272516163</v>
       </c>
       <c r="F12">
-        <v>1.044124745288904</v>
+        <v>0.8527774630695408</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268118</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.035408605547208</v>
+        <v>0.8698704199325601</v>
       </c>
       <c r="K12">
-        <v>1.035369441849503</v>
+        <v>0.8645539031873113</v>
       </c>
       <c r="L12">
-        <v>1.040386897755595</v>
+        <v>0.8785728884896666</v>
       </c>
       <c r="M12">
-        <v>1.047706561181219</v>
+        <v>0.8713973695840826</v>
       </c>
       <c r="N12">
-        <v>1.014778735749135</v>
+        <v>0.9529380731220198</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028848584021226</v>
+        <v>0.8321289781491338</v>
       </c>
       <c r="D13">
-        <v>1.031876112877348</v>
+        <v>0.8470989385752686</v>
       </c>
       <c r="E13">
-        <v>1.036905556456137</v>
+        <v>0.861469226845789</v>
       </c>
       <c r="F13">
-        <v>1.044264279696542</v>
+        <v>0.8541872135301594</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405786</v>
       </c>
       <c r="J13">
-        <v>1.03552878401884</v>
+        <v>0.8711105802322126</v>
       </c>
       <c r="K13">
-        <v>1.035494068494841</v>
+        <v>0.8658304614412055</v>
       </c>
       <c r="L13">
-        <v>1.040504605077418</v>
+        <v>0.8797822487854223</v>
       </c>
       <c r="M13">
-        <v>1.047836027963775</v>
+        <v>0.8727098933641921</v>
       </c>
       <c r="N13">
-        <v>1.014822547050643</v>
+        <v>0.9533995333103187</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029305597761362</v>
+        <v>0.8368621845270776</v>
       </c>
       <c r="D14">
-        <v>1.032317542296349</v>
+        <v>0.851512485803287</v>
       </c>
       <c r="E14">
-        <v>1.037324039455552</v>
+        <v>0.8656502283199973</v>
       </c>
       <c r="F14">
-        <v>1.044721149255309</v>
+        <v>0.8587145752581176</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353277</v>
+        <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>1.035922227565426</v>
+        <v>0.8750924249686949</v>
       </c>
       <c r="K14">
-        <v>1.035902087289256</v>
+        <v>0.869929318581895</v>
       </c>
       <c r="L14">
-        <v>1.040889956875909</v>
+        <v>0.8836656486074284</v>
       </c>
       <c r="M14">
-        <v>1.048259905569686</v>
+        <v>0.8769246604883352</v>
       </c>
       <c r="N14">
-        <v>1.014965934352414</v>
+        <v>0.9548822390181413</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029586917491996</v>
+        <v>0.8397071223314553</v>
       </c>
       <c r="D15">
-        <v>1.032589274173725</v>
+        <v>0.8541667099925733</v>
       </c>
       <c r="E15">
-        <v>1.037581637873289</v>
+        <v>0.8681650723577309</v>
       </c>
       <c r="F15">
-        <v>1.045002393982244</v>
+        <v>0.861437511346523</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.036164389590152</v>
+        <v>0.877486601905495</v>
       </c>
       <c r="K15">
-        <v>1.036153230001111</v>
+        <v>0.8723939640346906</v>
       </c>
       <c r="L15">
-        <v>1.041127137225676</v>
+        <v>0.8860009553565263</v>
       </c>
       <c r="M15">
-        <v>1.04852081925309</v>
+        <v>0.8794593183273027</v>
       </c>
       <c r="N15">
-        <v>1.015054155135528</v>
+        <v>0.9557745172107902</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031220381217136</v>
+        <v>0.8553169799845243</v>
       </c>
       <c r="D16">
-        <v>1.03416714562377</v>
+        <v>0.8687485224413045</v>
       </c>
       <c r="E16">
-        <v>1.03907731378174</v>
+        <v>0.8819870256472462</v>
       </c>
       <c r="F16">
-        <v>1.046635630581571</v>
+        <v>0.8764003930183588</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177636</v>
       </c>
       <c r="J16">
-        <v>1.037570083988448</v>
+        <v>0.8906335112749953</v>
       </c>
       <c r="K16">
-        <v>1.037611203200613</v>
+        <v>0.8859294623659424</v>
       </c>
       <c r="L16">
-        <v>1.042503894736898</v>
+        <v>0.8988287252149438</v>
       </c>
       <c r="M16">
-        <v>1.050035662484549</v>
+        <v>0.8933835617584835</v>
       </c>
       <c r="N16">
-        <v>1.015565748614913</v>
+        <v>0.9606837351500878</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032241599264274</v>
+        <v>0.8643955173704813</v>
       </c>
       <c r="D17">
-        <v>1.035153676581915</v>
+        <v>0.877242930559551</v>
       </c>
       <c r="E17">
-        <v>1.040012341989708</v>
+        <v>0.8900429944190431</v>
       </c>
       <c r="F17">
-        <v>1.047656888725776</v>
+        <v>0.8851196043651157</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.038448548867654</v>
+        <v>0.8982866749266493</v>
       </c>
       <c r="K17">
-        <v>1.038522469008551</v>
+        <v>0.8938102356023017</v>
       </c>
       <c r="L17">
-        <v>1.043364258595995</v>
+        <v>0.9062991622188722</v>
       </c>
       <c r="M17">
-        <v>1.050982601642853</v>
+        <v>0.9014940161428744</v>
       </c>
       <c r="N17">
-        <v>1.015885011622206</v>
+        <v>0.963548249095317</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032836052206622</v>
+        <v>0.869473086831854</v>
       </c>
       <c r="D18">
-        <v>1.035727962332571</v>
+        <v>0.8819980426988</v>
       </c>
       <c r="E18">
-        <v>1.040556606213861</v>
+        <v>0.8945538942069157</v>
       </c>
       <c r="F18">
-        <v>1.048251430112705</v>
+        <v>0.8900014786825563</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601775</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.038959776764371</v>
+        <v>0.9025689602401621</v>
       </c>
       <c r="K18">
-        <v>1.039052832485775</v>
+        <v>0.8982203768366707</v>
       </c>
       <c r="L18">
-        <v>1.043864946101596</v>
+        <v>0.9104801288991138</v>
       </c>
       <c r="M18">
-        <v>1.051533773423066</v>
+        <v>0.9060337781794099</v>
       </c>
       <c r="N18">
-        <v>1.016070646239164</v>
+        <v>0.9651529761110732</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033038542831997</v>
+        <v>0.8711705045745106</v>
       </c>
       <c r="D19">
-        <v>1.035923587405972</v>
+        <v>0.8835883285064829</v>
       </c>
       <c r="E19">
-        <v>1.040741997864389</v>
+        <v>0.8960626913298569</v>
       </c>
       <c r="F19">
-        <v>1.048453961861148</v>
+        <v>0.8916343071310288</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>1.039133896385259</v>
+        <v>0.9040007940245056</v>
       </c>
       <c r="K19">
-        <v>1.039233477464123</v>
+        <v>0.8996950449294394</v>
       </c>
       <c r="L19">
-        <v>1.044035474663893</v>
+        <v>0.9118782290722582</v>
       </c>
       <c r="M19">
-        <v>1.051721513654259</v>
+        <v>0.907551965227121</v>
       </c>
       <c r="N19">
-        <v>1.016133844100684</v>
+        <v>0.9656898178087536</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032132157513226</v>
+        <v>0.8634447608264151</v>
       </c>
       <c r="D20">
-        <v>1.035047949654619</v>
+        <v>0.8763528876313584</v>
       </c>
       <c r="E20">
-        <v>1.039912138813007</v>
+        <v>0.8891987569347142</v>
       </c>
       <c r="F20">
-        <v>1.047547435927114</v>
+        <v>0.8842059082351206</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030143</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.038354418929008</v>
+        <v>0.897484977916629</v>
       </c>
       <c r="K20">
-        <v>1.038424819505771</v>
+        <v>0.892984643208138</v>
       </c>
       <c r="L20">
-        <v>1.043272068890828</v>
+        <v>0.9055165059061026</v>
       </c>
       <c r="M20">
-        <v>1.050881124672924</v>
+        <v>0.9006442456328637</v>
       </c>
       <c r="N20">
-        <v>1.015850818504637</v>
+        <v>0.9632479703168015</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029171073216513</v>
+        <v>0.8354836221724813</v>
       </c>
       <c r="D21">
-        <v>1.032187603988182</v>
+        <v>0.8502267187387097</v>
       </c>
       <c r="E21">
-        <v>1.037200857333937</v>
+        <v>0.8644321055130817</v>
       </c>
       <c r="F21">
-        <v>1.044586664282698</v>
+        <v>0.8573955944272246</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.035806420760361</v>
+        <v>0.8739325133701928</v>
       </c>
       <c r="K21">
-        <v>1.035781988357569</v>
+        <v>0.8687352976013286</v>
       </c>
       <c r="L21">
-        <v>1.04077653206984</v>
+        <v>0.8825343444069981</v>
       </c>
       <c r="M21">
-        <v>1.048135136650866</v>
+        <v>0.8756968066135729</v>
       </c>
       <c r="N21">
-        <v>1.014923736419071</v>
+        <v>0.9544501602764228</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027297961370661</v>
+        <v>0.8148814602314123</v>
       </c>
       <c r="D22">
-        <v>1.030378445588498</v>
+        <v>0.8310421218749279</v>
       </c>
       <c r="E22">
-        <v>1.03548561886827</v>
+        <v>0.8462672181822763</v>
       </c>
       <c r="F22">
-        <v>1.042714351047513</v>
+        <v>0.8377209936215806</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544657</v>
       </c>
       <c r="J22">
-        <v>1.034193461159822</v>
+        <v>0.8566174540076836</v>
       </c>
       <c r="K22">
-        <v>1.034109422142072</v>
+        <v>0.850913227898734</v>
       </c>
       <c r="L22">
-        <v>1.039196726786682</v>
+        <v>0.8656533600172025</v>
       </c>
       <c r="M22">
-        <v>1.046397705749013</v>
+        <v>0.8573763516697802</v>
       </c>
       <c r="N22">
-        <v>1.014335409212803</v>
+        <v>0.9480171930411105</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028292034507777</v>
+        <v>0.8261634590474564</v>
       </c>
       <c r="D23">
-        <v>1.031338556130767</v>
+        <v>0.8415405900808914</v>
       </c>
       <c r="E23">
-        <v>1.036395920750502</v>
+        <v>0.8562051799495136</v>
       </c>
       <c r="F23">
-        <v>1.043707942975485</v>
+        <v>0.8484863144490452</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.044303897290666</v>
       </c>
       <c r="J23">
-        <v>1.035049578893487</v>
+        <v>0.8660947026274651</v>
       </c>
       <c r="K23">
-        <v>1.034997137271412</v>
+        <v>0.860667500121382</v>
       </c>
       <c r="L23">
-        <v>1.040035252155886</v>
+        <v>0.8748913575535672</v>
       </c>
       <c r="M23">
-        <v>1.047319808003667</v>
+        <v>0.8674018626604502</v>
       </c>
       <c r="N23">
-        <v>1.014647815229793</v>
+        <v>0.9515341454518242</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032181613253358</v>
+        <v>0.8638750306236652</v>
       </c>
       <c r="D24">
-        <v>1.03509572662457</v>
+        <v>0.8767556679946826</v>
       </c>
       <c r="E24">
-        <v>1.039957419778833</v>
+        <v>0.8895808047091971</v>
       </c>
       <c r="F24">
-        <v>1.047596896458321</v>
+        <v>0.8846193897613407</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.038396955795671</v>
+        <v>0.8978477841633138</v>
       </c>
       <c r="K24">
-        <v>1.038468946701523</v>
+        <v>0.8933582616941251</v>
       </c>
       <c r="L24">
-        <v>1.04331372899512</v>
+        <v>0.9058706924590569</v>
       </c>
       <c r="M24">
-        <v>1.050926981334269</v>
+        <v>0.9010288024285195</v>
       </c>
       <c r="N24">
-        <v>1.015866270712587</v>
+        <v>0.963383854964148</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036648173342412</v>
+        <v>0.8991009233870395</v>
       </c>
       <c r="D25">
-        <v>1.039411178549705</v>
+        <v>0.9098016850838074</v>
       </c>
       <c r="E25">
-        <v>1.04404654526202</v>
+        <v>0.9209444663288048</v>
       </c>
       <c r="F25">
-        <v>1.052065275295968</v>
+        <v>0.9185599703384949</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.042235876875733</v>
+        <v>0.9275763099194044</v>
       </c>
       <c r="K25">
-        <v>1.042452402005797</v>
+        <v>0.9239826626470273</v>
       </c>
       <c r="L25">
-        <v>1.047073381547944</v>
+        <v>0.9349079508451724</v>
       </c>
       <c r="M25">
-        <v>1.055067549748625</v>
+        <v>0.9325694157313641</v>
       </c>
       <c r="N25">
-        <v>1.017257303789772</v>
+        <v>0.9745454565877208</v>
       </c>
     </row>
   </sheetData>
